--- a/Documents/Sample Data.xlsx
+++ b/Documents/Sample Data.xlsx
@@ -688,7 +688,7 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G6" sqref="G6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
